--- a/data/trans_dic/P22_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de felicidad &lt;=7 en la última semana</t>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>51,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>43,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33,09%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 34,46</t>
+          <t>21,08; 52,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,48; 33,79</t>
+          <t>11,05; 41,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 45,03</t>
+          <t>14,85; 55,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,3; 48,14</t>
+          <t>6,9; 41,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,54; 46,14</t>
+          <t>35,46; 62,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 51,8</t>
+          <t>26,15; 53,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,71; 39,86</t>
+          <t>37,33; 66,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 38,02</t>
+          <t>45,86; 76,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 44,9</t>
+          <t>33,69; 54,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 44,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29,54; 56,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25,59; 59,14</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>42,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,56%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,04; 44,82</t>
+          <t>31,82; 51,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,88; 41,71</t>
+          <t>29,71; 48,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,47; 42,99</t>
+          <t>27,35; 46,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,21; 49,52</t>
+          <t>26,6; 48,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,03; 47,93</t>
+          <t>37,26; 53,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,81; 50,26</t>
+          <t>35,94; 51,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,25; 45,05</t>
+          <t>38,96; 54,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,66; 42,44</t>
+          <t>33,77; 48,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,96; 43,94</t>
+          <t>36,85; 49,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,01; 46,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35,06; 47,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32,21; 45,41</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>41,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,27; 42,74</t>
+          <t>28,91; 47,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 42,95</t>
+          <t>28,27; 47,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,61; 47,67</t>
+          <t>33,5; 52,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,62; 52,4</t>
+          <t>32,04; 49,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,39; 54,34</t>
+          <t>36,87; 52,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,29; 52,78</t>
+          <t>36,62; 52,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,23; 46,32</t>
+          <t>36,99; 53,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,49; 46,09</t>
+          <t>31,24; 47,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,38; 48,08</t>
+          <t>35,35; 47,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>35,11; 46,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38,4; 49,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>33,72; 46,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,08; 39,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,0; 41,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,88; 47,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,7; 46,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 47,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,48; 42,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,98; 40,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 43,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35,85%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37,87%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35,8%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44,86%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39,68%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>42,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 46,42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30,07; 43,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31,65; 44,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28,96; 43,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39,96; 50,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38,3; 47,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41,86; 52,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38,58; 49,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38,42; 46,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35,62; 43,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38,25; 46,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 45,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,59%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34553</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27741</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39922</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42902</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>69833</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>45382</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63442</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>127241</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>104386</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>73123</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>103363</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>170143</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20470; 50868</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11651; 43877</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16597; 61763</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12250; 74264</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50520; 89378</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30202; 61975</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45687; 81548</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93708; 156658</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80703; 129948</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49266; 97495</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69167; 131247</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>97737; 225890</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>175838</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>142077</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>140468</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>187884</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>204612</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>172517</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>201343</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>380450</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>304291</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>312985</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>389227</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>136654; 221426</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111232; 180969</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>108835; 185785</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>136946; 251296</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>171270; 244091</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>135308; 194106</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>143858; 199801</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>167080; 240392</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>327664; 438988</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>262911; 350219</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>269005; 365995</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>325193; 458434</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>124178</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>103432</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>116954</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>143646</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>187840</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>153673</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>147738</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>157492</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>312018</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>257105</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>264691</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>301138</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>95642; 157860</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79820; 135307</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92258; 144834</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>113194; 176341</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>157953; 223952</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>126225; 180289</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>121126; 174828</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>124822; 190002</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>268389; 360635</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>220126; 294322</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>231481; 301339</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>253863; 347654</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>334568</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>273250</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>297344</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>374432</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>462286</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>361268</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>383696</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>486076</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>796854</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>634518</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>681039</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>860508</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>286472; 397999</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>229208; 330312</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>248443; 353216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>302819; 450826</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>411782; 516348</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>320476; 400648</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>342837; 426651</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>423842; 548466</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>725235; 868887</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>569519; 701508</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>613532; 747508</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>762119; 965407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
